--- a/Listino_ATG.xlsx
+++ b/Listino_ATG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baseprotection-my.sharepoint.com/personal/m_cavallo_baseprotection_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="570" documentId="13_ncr:1_{4A2CD3E5-0607-4497-A017-69616D58F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B01CB8C7-4A4D-4552-941D-0E1082140946}"/>
+  <xr:revisionPtr revIDLastSave="574" documentId="13_ncr:1_{4A2CD3E5-0607-4497-A017-69616D58F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{982FFDDC-74B9-4AF8-BAA0-DE9F5531477D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{40B7C533-07EF-403B-9DE6-8C229D8B4A4B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{40B7C533-07EF-403B-9DE6-8C229D8B4A4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="195">
   <si>
     <t>Tg: 7-11</t>
   </si>
@@ -235,9 +235,6 @@
   </si>
   <si>
     <t>64-226 MaxiDry Elite *</t>
-  </si>
-  <si>
-    <t>* COMING SOON</t>
   </si>
   <si>
     <t>52-6745F/05</t>
@@ -620,6 +617,12 @@
   <si>
     <t>articolo</t>
   </si>
+  <si>
+    <t>https://www.dropbox.com/scl/fi/5zp9d1oab5etgqn57m0xj/34-274HC.png?rlkey=n56juhhb43cqu9tshhw9vqi6k&amp;st=tjcxrne5&amp;dl=0</t>
+  </si>
+  <si>
+    <t>Immagine</t>
+  </si>
 </sst>
 </file>
 
@@ -806,6 +809,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1108,7 +1115,7 @@
   <dimension ref="A1:M2036"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1122,7 +1129,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -1136,7 +1143,9 @@
       <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1172,19 +1181,19 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="10">
         <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6">
-        <v>4.7699999999999996</v>
+        <v>4.99</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1197,19 +1206,19 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="10">
         <v>144</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="6">
-        <v>4.7699999999999996</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1222,19 +1231,19 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="10">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="6">
-        <v>4.7699999999999996</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1247,10 +1256,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="10">
         <v>144</v>
@@ -1259,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>4.7699999999999996</v>
+        <v>6.55</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1272,19 +1281,19 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" s="10">
         <v>144</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E7" s="6">
-        <v>4.99</v>
+        <v>5.44</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1297,19 +1306,19 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C8" s="10">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E8" s="6">
-        <v>4.99</v>
+        <v>5.44</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1322,19 +1331,19 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="10">
         <v>144</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E9" s="6">
-        <v>4.99</v>
+        <v>5.71</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1347,10 +1356,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" s="10">
         <v>144</v>
@@ -1359,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="6">
-        <v>4.5599999999999996</v>
+        <v>5.43</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1372,19 +1381,19 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="6">
-        <v>4.5599999999999996</v>
+        <v>5.43</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1397,10 +1406,10 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10">
         <v>144</v>
@@ -1409,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="6">
-        <v>4.5599999999999996</v>
+        <v>4.95</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1422,7 +1431,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>16</v>
@@ -1431,10 +1440,10 @@
         <v>144</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="6">
-        <v>4.5599999999999996</v>
+        <v>4.13</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1447,21 +1456,23 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="10">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="6">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>4.13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1472,19 +1483,19 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C15" s="10">
         <v>144</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="6">
-        <v>4.5599999999999996</v>
+        <v>6.44</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1497,7 +1508,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>16</v>
@@ -1509,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="6">
-        <v>4.5599999999999996</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1522,19 +1533,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="10">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="6">
-        <v>4.5599999999999996</v>
+        <v>5.13</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1547,19 +1558,19 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="10">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E18" s="6">
-        <v>4.5599999999999996</v>
+        <v>18.82</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1572,19 +1583,19 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="10">
+        <v>72</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E19" s="6">
-        <v>4.5599999999999996</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1597,19 +1608,19 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C20" s="10">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E20" s="6">
-        <v>4.5599999999999996</v>
+        <v>8.69</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1622,19 +1633,19 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="10">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="6">
-        <v>4.5599999999999996</v>
+        <v>11.2</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1647,19 +1658,19 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="10">
+        <v>72</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E22" s="6">
-        <v>4.5599999999999996</v>
+        <v>10.85</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1672,19 +1683,19 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="10">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="6">
-        <v>4.5599999999999996</v>
+        <v>10.96</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1697,19 +1708,19 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>190</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C24" s="10">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="6">
-        <v>6.55</v>
+        <v>14.79</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1722,19 +1733,19 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>191</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C25" s="10">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E25" s="6">
-        <v>6.55</v>
+        <v>24.54</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1747,19 +1758,19 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C26" s="10">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E26" s="6">
-        <v>6.55</v>
+        <v>12.08</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1772,19 +1783,19 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C27" s="10">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" s="6">
-        <v>6.55</v>
+        <v>15.76</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1797,19 +1808,19 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C28" s="10">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="6">
-        <v>6.55</v>
+        <v>7.91</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1822,19 +1833,19 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C29" s="10">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29" s="6">
-        <v>5.44</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1847,19 +1858,19 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C30" s="10">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30" s="6">
-        <v>5.44</v>
+        <v>15.49</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1872,19 +1883,19 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C31" s="10">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31" s="6">
-        <v>5.44</v>
+        <v>11.39</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1897,19 +1908,19 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C32" s="10">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="6">
-        <v>5.44</v>
+        <v>5.5</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1922,19 +1933,19 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C33" s="10">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="6">
-        <v>5.44</v>
+        <v>5.13</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1947,19 +1958,19 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C34" s="10">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="6">
-        <v>5.44</v>
+        <v>5.26</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1972,19 +1983,19 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C35" s="10">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="6">
-        <v>5.44</v>
+        <v>7.12</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1997,19 +2008,19 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C36" s="10">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="6">
-        <v>5.44</v>
+        <v>5.89</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2022,19 +2033,19 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>21</v>
+        <v>64</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C37" s="10">
+        <v>72</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E37" s="6">
-        <v>5.44</v>
+        <v>4.99</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -2047,19 +2058,19 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C38" s="10">
+        <v>72</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E38" s="6">
-        <v>5.44</v>
+        <v>6.03</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2072,19 +2083,19 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C39" s="10">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39" s="6">
-        <v>5.44</v>
+        <v>10.28</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -2097,19 +2108,19 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C40" s="10">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40" s="6">
-        <v>5.44</v>
+        <v>8.93</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -2122,19 +2133,19 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C41" s="10">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41" s="6">
-        <v>5.44</v>
+        <v>13.81</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -2147,19 +2158,19 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C42" s="10">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42" s="6">
-        <v>5.44</v>
+        <v>6.61</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -2172,19 +2183,19 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C43" s="10">
         <v>144</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43" s="6">
-        <v>5.71</v>
+        <v>2.99</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -2197,10 +2208,10 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>24</v>
+        <v>58</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C44" s="10">
         <v>144</v>
@@ -2209,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="6">
-        <v>5.71</v>
+        <v>3.48</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2222,10 +2233,10 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>24</v>
+        <v>59</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C45" s="10">
         <v>144</v>
@@ -2234,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="6">
-        <v>5.71</v>
+        <v>4.24</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -2247,10 +2258,10 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="C46" s="10">
         <v>144</v>
@@ -2259,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="E46" s="6">
-        <v>5.71</v>
+        <v>3.45</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2271,21 +2282,8 @@
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="10">
-        <v>144</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="6">
-        <v>5.71</v>
-      </c>
+      <c r="C47"/>
+      <c r="E47"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -2296,21 +2294,8 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="10">
-        <v>144</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="6">
-        <v>5.71</v>
-      </c>
+      <c r="C48"/>
+      <c r="E48"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -2320,22 +2305,9 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="10">
-        <v>144</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="6">
-        <v>5.71</v>
-      </c>
+    <row r="49" spans="3:13">
+      <c r="C49"/>
+      <c r="E49"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -2345,22 +2317,9 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="10">
-        <v>144</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="6">
-        <v>5.43</v>
-      </c>
+    <row r="50" spans="3:13">
+      <c r="C50"/>
+      <c r="E50"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -2370,22 +2329,9 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="10">
-        <v>144</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="6">
-        <v>5.43</v>
-      </c>
+    <row r="51" spans="3:13">
+      <c r="C51"/>
+      <c r="E51"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2395,22 +2341,9 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="10">
-        <v>144</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="6">
-        <v>5.43</v>
-      </c>
+    <row r="52" spans="3:13">
+      <c r="C52"/>
+      <c r="E52"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2420,22 +2353,9 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="10">
-        <v>144</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="6">
-        <v>5.43</v>
-      </c>
+    <row r="53" spans="3:13">
+      <c r="C53"/>
+      <c r="E53"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2445,22 +2365,9 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="10">
-        <v>144</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="6">
-        <v>5.43</v>
-      </c>
+    <row r="54" spans="3:13">
+      <c r="C54"/>
+      <c r="E54"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -2470,22 +2377,9 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="10">
-        <v>144</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="6">
-        <v>5.43</v>
-      </c>
+    <row r="55" spans="3:13">
+      <c r="C55"/>
+      <c r="E55"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -2495,22 +2389,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="10">
-        <v>144</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="6">
-        <v>5.43</v>
-      </c>
+    <row r="56" spans="3:13">
+      <c r="C56"/>
+      <c r="E56"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -2520,22 +2401,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="10">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="6">
-        <v>5.43</v>
-      </c>
+    <row r="57" spans="3:13">
+      <c r="C57"/>
+      <c r="E57"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -2545,22 +2413,9 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58" s="10">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="6">
-        <v>5.43</v>
-      </c>
+    <row r="58" spans="3:13">
+      <c r="C58"/>
+      <c r="E58"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -2570,22 +2425,9 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" s="10">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="6">
-        <v>5.43</v>
-      </c>
+    <row r="59" spans="3:13">
+      <c r="C59"/>
+      <c r="E59"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -2595,22 +2437,9 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="10">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="6">
-        <v>5.43</v>
-      </c>
+    <row r="60" spans="3:13">
+      <c r="C60"/>
+      <c r="E60"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -2620,22 +2449,9 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="10">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="6">
-        <v>5.43</v>
-      </c>
+    <row r="61" spans="3:13">
+      <c r="C61"/>
+      <c r="E61"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -2645,22 +2461,9 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="10">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="6">
-        <v>5.43</v>
-      </c>
+    <row r="62" spans="3:13">
+      <c r="C62"/>
+      <c r="E62"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -2670,22 +2473,9 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="10">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="6">
-        <v>5.43</v>
-      </c>
+    <row r="63" spans="3:13">
+      <c r="C63"/>
+      <c r="E63"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -2695,22 +2485,9 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" ht="15" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="10">
-        <v>144</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="6">
-        <v>4.95</v>
-      </c>
+    <row r="64" spans="3:13" ht="15" customHeight="1">
+      <c r="C64"/>
+      <c r="E64"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -2720,22 +2497,9 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="10">
-        <v>144</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="6">
-        <v>4.95</v>
-      </c>
+    <row r="65" spans="3:13">
+      <c r="C65"/>
+      <c r="E65"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -2745,22 +2509,9 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="10">
-        <v>144</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="6">
-        <v>4.95</v>
-      </c>
+    <row r="66" spans="3:13">
+      <c r="C66"/>
+      <c r="E66"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -2770,22 +2521,9 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="10">
-        <v>144</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="6">
-        <v>4.95</v>
-      </c>
+    <row r="67" spans="3:13">
+      <c r="C67"/>
+      <c r="E67"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -2795,22 +2533,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="10">
-        <v>144</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="6">
-        <v>4.95</v>
-      </c>
+    <row r="68" spans="3:13">
+      <c r="C68"/>
+      <c r="E68"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -2820,22 +2545,9 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="10">
-        <v>144</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="6">
-        <v>4.95</v>
-      </c>
+    <row r="69" spans="3:13">
+      <c r="C69"/>
+      <c r="E69"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -2845,22 +2557,9 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C70" s="10">
-        <v>144</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="6">
-        <v>4.95</v>
-      </c>
+    <row r="70" spans="3:13">
+      <c r="C70"/>
+      <c r="E70"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -2870,22 +2569,9 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="10">
-        <v>144</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="71" spans="3:13">
+      <c r="C71"/>
+      <c r="E71"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -2895,22 +2581,9 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="10">
-        <v>144</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="72" spans="3:13">
+      <c r="C72"/>
+      <c r="E72"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -2920,22 +2593,9 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="10">
-        <v>144</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="73" spans="3:13">
+      <c r="C73"/>
+      <c r="E73"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -2945,22 +2605,9 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="10">
-        <v>144</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="74" spans="3:13">
+      <c r="C74"/>
+      <c r="E74"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -2970,22 +2617,9 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="10">
-        <v>144</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="75" spans="3:13">
+      <c r="C75"/>
+      <c r="E75"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -2995,22 +2629,9 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="10">
-        <v>144</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="76" spans="3:13">
+      <c r="C76"/>
+      <c r="E76"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -3020,22 +2641,9 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="10">
-        <v>144</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="77" spans="3:13">
+      <c r="C77"/>
+      <c r="E77"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -3045,22 +2653,9 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="10">
-        <v>144</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="78" spans="3:13">
+      <c r="C78"/>
+      <c r="E78"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -3070,22 +2665,9 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="10">
-        <v>1</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="79" spans="3:13">
+      <c r="C79"/>
+      <c r="E79"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -3095,22 +2677,9 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="10">
-        <v>1</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="80" spans="3:13">
+      <c r="C80"/>
+      <c r="E80"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -3120,22 +2689,9 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="10">
-        <v>1</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="81" spans="3:13">
+      <c r="C81"/>
+      <c r="E81"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -3145,22 +2701,9 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="10">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="82" spans="3:13">
+      <c r="C82"/>
+      <c r="E82"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -3170,22 +2713,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="10">
-        <v>1</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="83" spans="3:13">
+      <c r="C83"/>
+      <c r="E83"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -3195,22 +2725,9 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="10">
-        <v>1</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="84" spans="3:13">
+      <c r="C84"/>
+      <c r="E84"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -3220,22 +2737,9 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="10">
-        <v>1</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="85" spans="3:13">
+      <c r="C85"/>
+      <c r="E85"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -3245,22 +2749,9 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" s="10">
-        <v>1</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="6">
-        <v>4.13</v>
-      </c>
+    <row r="86" spans="3:13">
+      <c r="C86"/>
+      <c r="E86"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -3270,22 +2761,9 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C87" s="10">
-        <v>144</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E87" s="6">
-        <v>6.44</v>
-      </c>
+    <row r="87" spans="3:13">
+      <c r="C87"/>
+      <c r="E87"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -3295,22 +2773,9 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88" s="10">
-        <v>144</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E88" s="6">
-        <v>6.44</v>
-      </c>
+    <row r="88" spans="3:13">
+      <c r="C88"/>
+      <c r="E88"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -3320,22 +2785,9 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" s="10">
-        <v>144</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E89" s="6">
-        <v>6.44</v>
-      </c>
+    <row r="89" spans="3:13">
+      <c r="C89"/>
+      <c r="E89"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -3345,22 +2797,9 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="10">
-        <v>144</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E90" s="6">
-        <v>6.44</v>
-      </c>
+    <row r="90" spans="3:13">
+      <c r="C90"/>
+      <c r="E90"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -3370,22 +2809,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="10">
-        <v>144</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E91" s="6">
-        <v>6.44</v>
-      </c>
+    <row r="91" spans="3:13">
+      <c r="C91"/>
+      <c r="E91"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -3395,22 +2821,9 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" s="10">
-        <v>144</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E92" s="6">
-        <v>6.44</v>
-      </c>
+    <row r="92" spans="3:13">
+      <c r="C92"/>
+      <c r="E92"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -3420,22 +2833,9 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" s="10">
-        <v>144</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E93" s="6">
-        <v>4.8899999999999997</v>
-      </c>
+    <row r="93" spans="3:13">
+      <c r="C93"/>
+      <c r="E93"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -3445,22 +2845,9 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" s="10">
-        <v>144</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E94" s="6">
-        <v>4.8899999999999997</v>
-      </c>
+    <row r="94" spans="3:13">
+      <c r="C94"/>
+      <c r="E94"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -3470,22 +2857,9 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="10">
-        <v>144</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E95" s="6">
-        <v>4.8899999999999997</v>
-      </c>
+    <row r="95" spans="3:13">
+      <c r="C95"/>
+      <c r="E95"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -3495,22 +2869,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96" s="10">
-        <v>144</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" s="6">
-        <v>4.8899999999999997</v>
-      </c>
+    <row r="96" spans="3:13">
+      <c r="C96"/>
+      <c r="E96"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -3520,22 +2881,9 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" s="10">
-        <v>144</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E97" s="6">
-        <v>4.8899999999999997</v>
-      </c>
+    <row r="97" spans="3:13">
+      <c r="C97"/>
+      <c r="E97"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -3545,22 +2893,9 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" s="10">
-        <v>144</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="6">
-        <v>4.8899999999999997</v>
-      </c>
+    <row r="98" spans="3:13">
+      <c r="C98"/>
+      <c r="E98"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -3570,22 +2905,9 @@
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" s="10">
-        <v>144</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E99" s="6">
-        <v>4.8899999999999997</v>
-      </c>
+    <row r="99" spans="3:13">
+      <c r="C99"/>
+      <c r="E99"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -3595,22 +2917,9 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" s="10">
-        <v>144</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E100" s="6">
-        <v>5.13</v>
-      </c>
+    <row r="100" spans="3:13">
+      <c r="C100"/>
+      <c r="E100"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -3620,22 +2929,9 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" s="10">
-        <v>144</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E101" s="6">
-        <v>5.13</v>
-      </c>
+    <row r="101" spans="3:13">
+      <c r="C101"/>
+      <c r="E101"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -3645,22 +2941,9 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B102" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" s="10">
-        <v>144</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" s="6">
-        <v>5.13</v>
-      </c>
+    <row r="102" spans="3:13">
+      <c r="C102"/>
+      <c r="E102"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -3670,22 +2953,9 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="1:13">
-      <c r="A103" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="10">
-        <v>144</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E103" s="6">
-        <v>5.13</v>
-      </c>
+    <row r="103" spans="3:13">
+      <c r="C103"/>
+      <c r="E103"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -3695,22 +2965,9 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" s="10">
-        <v>144</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="6">
-        <v>5.13</v>
-      </c>
+    <row r="104" spans="3:13">
+      <c r="C104"/>
+      <c r="E104"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -3720,22 +2977,9 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" s="10">
-        <v>144</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E105" s="6">
-        <v>5.13</v>
-      </c>
+    <row r="105" spans="3:13">
+      <c r="C105"/>
+      <c r="E105"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3745,22 +2989,9 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" s="10">
-        <v>144</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="6">
-        <v>5.13</v>
-      </c>
+    <row r="106" spans="3:13">
+      <c r="C106"/>
+      <c r="E106"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -3770,22 +3001,9 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" s="10">
-        <v>72</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E107" s="6">
-        <v>18.82</v>
-      </c>
+    <row r="107" spans="3:13">
+      <c r="C107"/>
+      <c r="E107"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -3795,22 +3013,9 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" s="10">
-        <v>72</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E108" s="6">
-        <v>18.82</v>
-      </c>
+    <row r="108" spans="3:13">
+      <c r="C108"/>
+      <c r="E108"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -3820,22 +3025,9 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="1:13">
-      <c r="A109" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" s="10">
-        <v>72</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E109" s="6">
-        <v>18.82</v>
-      </c>
+    <row r="109" spans="3:13">
+      <c r="C109"/>
+      <c r="E109"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -3845,22 +3037,9 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" s="10">
-        <v>72</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E110" s="6">
-        <v>18.82</v>
-      </c>
+    <row r="110" spans="3:13">
+      <c r="C110"/>
+      <c r="E110"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -3870,22 +3049,9 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="1:13">
-      <c r="A111" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" s="10">
-        <v>72</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E111" s="6">
-        <v>18.82</v>
-      </c>
+    <row r="111" spans="3:13">
+      <c r="C111"/>
+      <c r="E111"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -3895,22 +3061,9 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" s="10">
-        <v>72</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E112" s="6">
-        <v>18.82</v>
-      </c>
+    <row r="112" spans="3:13">
+      <c r="C112"/>
+      <c r="E112"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -3920,22 +3073,9 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="1:13">
-      <c r="A113" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113" s="10">
-        <v>72</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E113" s="6">
-        <v>8.5399999999999991</v>
-      </c>
+    <row r="113" spans="3:13">
+      <c r="C113"/>
+      <c r="E113"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -3945,22 +3085,9 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" s="10">
-        <v>72</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E114" s="6">
-        <v>8.5399999999999991</v>
-      </c>
+    <row r="114" spans="3:13">
+      <c r="C114"/>
+      <c r="E114"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -3970,22 +3097,9 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" s="10">
-        <v>72</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E115" s="6">
-        <v>8.5399999999999991</v>
-      </c>
+    <row r="115" spans="3:13">
+      <c r="C115"/>
+      <c r="E115"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -3995,22 +3109,9 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" s="10">
-        <v>72</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E116" s="6">
-        <v>8.5399999999999991</v>
-      </c>
+    <row r="116" spans="3:13">
+      <c r="C116"/>
+      <c r="E116"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -4020,22 +3121,9 @@
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="1:13">
-      <c r="A117" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" s="10">
-        <v>72</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E117" s="6">
-        <v>8.5399999999999991</v>
-      </c>
+    <row r="117" spans="3:13">
+      <c r="C117"/>
+      <c r="E117"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -4045,22 +3133,9 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="1:13">
-      <c r="A118" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" s="10">
-        <v>72</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E118" s="6">
-        <v>8.5399999999999991</v>
-      </c>
+    <row r="118" spans="3:13">
+      <c r="C118"/>
+      <c r="E118"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -4070,22 +3145,9 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="1:13">
-      <c r="A119" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="10">
-        <v>72</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E119" s="6">
-        <v>8.69</v>
-      </c>
+    <row r="119" spans="3:13">
+      <c r="C119"/>
+      <c r="E119"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -4095,22 +3157,9 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="10">
-        <v>72</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E120" s="6">
-        <v>8.69</v>
-      </c>
+    <row r="120" spans="3:13">
+      <c r="C120"/>
+      <c r="E120"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -4120,22 +3169,9 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="10">
-        <v>72</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E121" s="6">
-        <v>8.69</v>
-      </c>
+    <row r="121" spans="3:13">
+      <c r="C121"/>
+      <c r="E121"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -4145,22 +3181,9 @@
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="10">
-        <v>72</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E122" s="6">
-        <v>8.69</v>
-      </c>
+    <row r="122" spans="3:13">
+      <c r="C122"/>
+      <c r="E122"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -4170,22 +3193,9 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="10">
-        <v>72</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E123" s="6">
-        <v>8.69</v>
-      </c>
+    <row r="123" spans="3:13">
+      <c r="C123"/>
+      <c r="E123"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -4195,22 +3205,9 @@
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="10">
-        <v>72</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E124" s="6">
-        <v>8.69</v>
-      </c>
+    <row r="124" spans="3:13">
+      <c r="C124"/>
+      <c r="E124"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -4220,22 +3217,9 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" spans="1:13" ht="15" customHeight="1">
-      <c r="A125" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C125" s="10">
-        <v>72</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E125" s="6">
-        <v>11.2</v>
-      </c>
+    <row r="125" spans="3:13" ht="15" customHeight="1">
+      <c r="C125"/>
+      <c r="E125"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -4245,22 +3229,9 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="1:13">
-      <c r="A126" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C126" s="10">
-        <v>72</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E126" s="6">
-        <v>11.2</v>
-      </c>
+    <row r="126" spans="3:13">
+      <c r="C126"/>
+      <c r="E126"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -4270,22 +3241,9 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="1:13">
-      <c r="A127" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" s="10">
-        <v>72</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E127" s="6">
-        <v>11.2</v>
-      </c>
+    <row r="127" spans="3:13">
+      <c r="C127"/>
+      <c r="E127"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -4295,22 +3253,9 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="1:13">
-      <c r="A128" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C128" s="10">
-        <v>72</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E128" s="6">
-        <v>11.2</v>
-      </c>
+    <row r="128" spans="3:13">
+      <c r="C128"/>
+      <c r="E128"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -4320,22 +3265,9 @@
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13">
-      <c r="A129" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C129" s="10">
-        <v>72</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E129" s="6">
-        <v>11.2</v>
-      </c>
+    <row r="129" spans="3:13">
+      <c r="C129"/>
+      <c r="E129"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -4345,22 +3277,9 @@
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
     </row>
-    <row r="130" spans="1:13">
-      <c r="A130" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" s="10">
-        <v>72</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E130" s="6">
-        <v>10.85</v>
-      </c>
+    <row r="130" spans="3:13">
+      <c r="C130"/>
+      <c r="E130"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -4370,22 +3289,9 @@
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="1:13">
-      <c r="A131" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C131" s="10">
-        <v>72</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E131" s="6">
-        <v>10.85</v>
-      </c>
+    <row r="131" spans="3:13">
+      <c r="C131"/>
+      <c r="E131"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -4395,22 +3301,9 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="1:13">
-      <c r="A132" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C132" s="10">
-        <v>72</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E132" s="6">
-        <v>10.85</v>
-      </c>
+    <row r="132" spans="3:13">
+      <c r="C132"/>
+      <c r="E132"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -4420,22 +3313,9 @@
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="1:13">
-      <c r="A133" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C133" s="10">
-        <v>72</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E133" s="6">
-        <v>10.85</v>
-      </c>
+    <row r="133" spans="3:13">
+      <c r="C133"/>
+      <c r="E133"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -4445,22 +3325,9 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="1:13">
-      <c r="A134" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C134" s="10">
-        <v>72</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E134" s="6">
-        <v>10.85</v>
-      </c>
+    <row r="134" spans="3:13">
+      <c r="C134"/>
+      <c r="E134"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -4470,22 +3337,9 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="1:13">
-      <c r="A135" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C135" s="10">
-        <v>72</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E135" s="6">
-        <v>10.85</v>
-      </c>
+    <row r="135" spans="3:13">
+      <c r="C135"/>
+      <c r="E135"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -4495,22 +3349,9 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="1:13">
-      <c r="A136" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C136" s="10">
-        <v>72</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E136" s="6">
-        <v>10.96</v>
-      </c>
+    <row r="136" spans="3:13">
+      <c r="C136"/>
+      <c r="E136"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -4520,22 +3361,9 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="1:13">
-      <c r="A137" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C137" s="10">
-        <v>72</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E137" s="6">
-        <v>10.96</v>
-      </c>
+    <row r="137" spans="3:13">
+      <c r="C137"/>
+      <c r="E137"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
@@ -4545,22 +3373,9 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" spans="1:13">
-      <c r="A138" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C138" s="10">
-        <v>72</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E138" s="6">
-        <v>10.96</v>
-      </c>
+    <row r="138" spans="3:13">
+      <c r="C138"/>
+      <c r="E138"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
@@ -4570,22 +3385,9 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" spans="1:13">
-      <c r="A139" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C139" s="10">
-        <v>72</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E139" s="6">
-        <v>10.96</v>
-      </c>
+    <row r="139" spans="3:13">
+      <c r="C139"/>
+      <c r="E139"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
@@ -4595,22 +3397,9 @@
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
     </row>
-    <row r="140" spans="1:13">
-      <c r="A140" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C140" s="10">
-        <v>72</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E140" s="6">
-        <v>10.96</v>
-      </c>
+    <row r="140" spans="3:13">
+      <c r="C140"/>
+      <c r="E140"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -4620,22 +3409,9 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="1:13">
-      <c r="A141" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C141" s="10">
-        <v>72</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E141" s="6">
-        <v>14.79</v>
-      </c>
+    <row r="141" spans="3:13">
+      <c r="C141"/>
+      <c r="E141"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
@@ -4645,22 +3421,9 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="1:13">
-      <c r="A142" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C142" s="10">
-        <v>72</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E142" s="6">
-        <v>14.79</v>
-      </c>
+    <row r="142" spans="3:13">
+      <c r="C142"/>
+      <c r="E142"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -4670,22 +3433,9 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:13">
-      <c r="A143" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C143" s="10">
-        <v>72</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E143" s="6">
-        <v>14.79</v>
-      </c>
+    <row r="143" spans="3:13">
+      <c r="C143"/>
+      <c r="E143"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -4695,22 +3445,9 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" spans="1:13">
-      <c r="A144" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C144" s="10">
-        <v>72</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E144" s="6">
-        <v>14.79</v>
-      </c>
+    <row r="144" spans="3:13">
+      <c r="C144"/>
+      <c r="E144"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -4720,22 +3457,9 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="1:13">
-      <c r="A145" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C145" s="10">
-        <v>72</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E145" s="6">
-        <v>14.79</v>
-      </c>
+    <row r="145" spans="3:13">
+      <c r="C145"/>
+      <c r="E145"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -4745,22 +3469,9 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" spans="1:13">
-      <c r="A146" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C146" s="10">
-        <v>72</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E146" s="6">
-        <v>14.79</v>
-      </c>
+    <row r="146" spans="3:13">
+      <c r="C146"/>
+      <c r="E146"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
@@ -4770,22 +3481,9 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" spans="1:13">
-      <c r="A147" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C147" s="10">
-        <v>72</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E147" s="6">
-        <v>14.79</v>
-      </c>
+    <row r="147" spans="3:13">
+      <c r="C147"/>
+      <c r="E147"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -4795,22 +3493,9 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
     </row>
-    <row r="148" spans="1:13">
-      <c r="A148" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C148" s="10">
-        <v>72</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E148" s="6">
-        <v>24.54</v>
-      </c>
+    <row r="148" spans="3:13">
+      <c r="C148"/>
+      <c r="E148"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -4820,22 +3505,9 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
     </row>
-    <row r="149" spans="1:13">
-      <c r="A149" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C149" s="10">
-        <v>72</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E149" s="6">
-        <v>24.54</v>
-      </c>
+    <row r="149" spans="3:13">
+      <c r="C149"/>
+      <c r="E149"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
@@ -4845,22 +3517,9 @@
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
     </row>
-    <row r="150" spans="1:13">
-      <c r="A150" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C150" s="10">
-        <v>72</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E150" s="6">
-        <v>24.54</v>
-      </c>
+    <row r="150" spans="3:13">
+      <c r="C150"/>
+      <c r="E150"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -4870,22 +3529,9 @@
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
     </row>
-    <row r="151" spans="1:13">
-      <c r="A151" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C151" s="10">
-        <v>72</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E151" s="6">
-        <v>24.54</v>
-      </c>
+    <row r="151" spans="3:13">
+      <c r="C151"/>
+      <c r="E151"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
@@ -4895,22 +3541,9 @@
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
     </row>
-    <row r="152" spans="1:13">
-      <c r="A152" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C152" s="10">
-        <v>72</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E152" s="6">
-        <v>12.08</v>
-      </c>
+    <row r="152" spans="3:13">
+      <c r="C152"/>
+      <c r="E152"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -4920,22 +3553,9 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
     </row>
-    <row r="153" spans="1:13">
-      <c r="A153" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B153" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C153" s="10">
-        <v>72</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E153" s="6">
-        <v>12.08</v>
-      </c>
+    <row r="153" spans="3:13">
+      <c r="C153"/>
+      <c r="E153"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
@@ -4945,22 +3565,9 @@
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
     </row>
-    <row r="154" spans="1:13">
-      <c r="A154" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B154" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C154" s="10">
-        <v>72</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E154" s="6">
-        <v>15.76</v>
-      </c>
+    <row r="154" spans="3:13">
+      <c r="C154"/>
+      <c r="E154"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
@@ -4970,22 +3577,9 @@
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
     </row>
-    <row r="155" spans="1:13">
-      <c r="A155" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C155" s="10">
-        <v>72</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E155" s="6">
-        <v>15.76</v>
-      </c>
+    <row r="155" spans="3:13">
+      <c r="C155"/>
+      <c r="E155"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -4995,22 +3589,9 @@
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
     </row>
-    <row r="156" spans="1:13">
-      <c r="A156" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C156" s="10">
-        <v>72</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E156" s="6">
-        <v>7.91</v>
-      </c>
+    <row r="156" spans="3:13">
+      <c r="C156"/>
+      <c r="E156"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
@@ -5020,22 +3601,9 @@
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
     </row>
-    <row r="157" spans="1:13">
-      <c r="A157" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C157" s="10">
-        <v>72</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E157" s="6">
-        <v>7.91</v>
-      </c>
+    <row r="157" spans="3:13">
+      <c r="C157"/>
+      <c r="E157"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -5045,22 +3613,9 @@
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
     </row>
-    <row r="158" spans="1:13">
-      <c r="A158" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C158" s="10">
-        <v>72</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E158" s="6">
-        <v>7.91</v>
-      </c>
+    <row r="158" spans="3:13">
+      <c r="C158"/>
+      <c r="E158"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
@@ -5070,22 +3625,9 @@
       <c r="L158" s="3"/>
       <c r="M158" s="3"/>
     </row>
-    <row r="159" spans="1:13">
-      <c r="A159" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B159" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C159" s="10">
-        <v>72</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E159" s="6">
-        <v>7.91</v>
-      </c>
+    <row r="159" spans="3:13">
+      <c r="C159"/>
+      <c r="E159"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -5095,22 +3637,9 @@
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
     </row>
-    <row r="160" spans="1:13">
-      <c r="A160" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B160" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C160" s="10">
-        <v>72</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E160" s="6">
-        <v>7.91</v>
-      </c>
+    <row r="160" spans="3:13">
+      <c r="C160"/>
+      <c r="E160"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
@@ -5120,22 +3649,9 @@
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
     </row>
-    <row r="161" spans="1:13">
-      <c r="A161" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C161" s="10">
-        <v>72</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E161" s="6">
-        <v>8.5399999999999991</v>
-      </c>
+    <row r="161" spans="3:13">
+      <c r="C161"/>
+      <c r="E161"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -5145,22 +3661,9 @@
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
     </row>
-    <row r="162" spans="1:13">
-      <c r="A162" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C162" s="10">
-        <v>72</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E162" s="6">
-        <v>8.5399999999999991</v>
-      </c>
+    <row r="162" spans="3:13">
+      <c r="C162"/>
+      <c r="E162"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
@@ -5170,22 +3673,9 @@
       <c r="L162" s="3"/>
       <c r="M162" s="3"/>
     </row>
-    <row r="163" spans="1:13">
-      <c r="A163" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C163" s="10">
-        <v>72</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E163" s="6">
-        <v>8.5399999999999991</v>
-      </c>
+    <row r="163" spans="3:13">
+      <c r="C163"/>
+      <c r="E163"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
@@ -5195,22 +3685,9 @@
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
     </row>
-    <row r="164" spans="1:13">
-      <c r="A164" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" s="10">
-        <v>72</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E164" s="6">
-        <v>8.5399999999999991</v>
-      </c>
+    <row r="164" spans="3:13">
+      <c r="C164"/>
+      <c r="E164"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
@@ -5220,22 +3697,9 @@
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
     </row>
-    <row r="165" spans="1:13">
-      <c r="A165" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" s="10">
-        <v>72</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E165" s="6">
-        <v>8.5399999999999991</v>
-      </c>
+    <row r="165" spans="3:13">
+      <c r="C165"/>
+      <c r="E165"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
@@ -5245,22 +3709,9 @@
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
     </row>
-    <row r="166" spans="1:13">
-      <c r="A166" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C166" s="10">
-        <v>72</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E166" s="6">
-        <v>15.49</v>
-      </c>
+    <row r="166" spans="3:13">
+      <c r="C166"/>
+      <c r="E166"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -5270,22 +3721,9 @@
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
     </row>
-    <row r="167" spans="1:13">
-      <c r="A167" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C167" s="10">
-        <v>72</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E167" s="6">
-        <v>15.49</v>
-      </c>
+    <row r="167" spans="3:13">
+      <c r="C167"/>
+      <c r="E167"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
@@ -5295,22 +3733,9 @@
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
     </row>
-    <row r="168" spans="1:13">
-      <c r="A168" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C168" s="10">
-        <v>72</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E168" s="6">
-        <v>15.49</v>
-      </c>
+    <row r="168" spans="3:13">
+      <c r="C168"/>
+      <c r="E168"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
@@ -5320,22 +3745,9 @@
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
     </row>
-    <row r="169" spans="1:13">
-      <c r="A169" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" s="10">
-        <v>72</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E169" s="6">
-        <v>15.49</v>
-      </c>
+    <row r="169" spans="3:13">
+      <c r="C169"/>
+      <c r="E169"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
@@ -5345,22 +3757,9 @@
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
     </row>
-    <row r="170" spans="1:13">
-      <c r="A170" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C170" s="10">
-        <v>72</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E170" s="6">
-        <v>15.49</v>
-      </c>
+    <row r="170" spans="3:13">
+      <c r="C170"/>
+      <c r="E170"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -5370,22 +3769,9 @@
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
     </row>
-    <row r="171" spans="1:13">
-      <c r="A171" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C171" s="10">
-        <v>72</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E171" s="6">
-        <v>11.39</v>
-      </c>
+    <row r="171" spans="3:13">
+      <c r="C171"/>
+      <c r="E171"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
@@ -5395,22 +3781,9 @@
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
     </row>
-    <row r="172" spans="1:13">
-      <c r="A172" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C172" s="10">
-        <v>72</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E172" s="6">
-        <v>11.39</v>
-      </c>
+    <row r="172" spans="3:13">
+      <c r="C172"/>
+      <c r="E172"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
@@ -5420,22 +3793,9 @@
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
     </row>
-    <row r="173" spans="1:13">
-      <c r="A173" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C173" s="10">
-        <v>72</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E173" s="6">
-        <v>11.39</v>
-      </c>
+    <row r="173" spans="3:13">
+      <c r="C173"/>
+      <c r="E173"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
@@ -5445,22 +3805,9 @@
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
     </row>
-    <row r="174" spans="1:13">
-      <c r="A174" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C174" s="10">
-        <v>72</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E174" s="6">
-        <v>11.39</v>
-      </c>
+    <row r="174" spans="3:13">
+      <c r="C174"/>
+      <c r="E174"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -5470,22 +3817,9 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
     </row>
-    <row r="175" spans="1:13">
-      <c r="A175" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C175" s="10">
-        <v>72</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E175" s="6">
-        <v>11.39</v>
-      </c>
+    <row r="175" spans="3:13">
+      <c r="C175"/>
+      <c r="E175"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
@@ -5495,22 +3829,9 @@
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
     </row>
-    <row r="176" spans="1:13">
-      <c r="A176" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C176" s="10">
-        <v>72</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E176" s="6">
-        <v>5.5</v>
-      </c>
+    <row r="176" spans="3:13">
+      <c r="C176"/>
+      <c r="E176"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
@@ -5520,22 +3841,9 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
     </row>
-    <row r="177" spans="1:13">
-      <c r="A177" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C177" s="10">
-        <v>72</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E177" s="6">
-        <v>5.5</v>
-      </c>
+    <row r="177" spans="3:13">
+      <c r="C177"/>
+      <c r="E177"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -5545,22 +3853,9 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
     </row>
-    <row r="178" spans="1:13">
-      <c r="A178" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" s="10">
-        <v>72</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E178" s="6">
-        <v>5.5</v>
-      </c>
+    <row r="178" spans="3:13">
+      <c r="C178"/>
+      <c r="E178"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
@@ -5570,22 +3865,9 @@
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
     </row>
-    <row r="179" spans="1:13">
-      <c r="A179" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C179" s="10">
-        <v>72</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E179" s="6">
-        <v>5.5</v>
-      </c>
+    <row r="179" spans="3:13">
+      <c r="C179"/>
+      <c r="E179"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
@@ -5595,22 +3877,9 @@
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
     </row>
-    <row r="180" spans="1:13">
-      <c r="A180" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C180" s="10">
-        <v>72</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E180" s="6">
-        <v>5.5</v>
-      </c>
+    <row r="180" spans="3:13">
+      <c r="C180"/>
+      <c r="E180"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
@@ -5620,22 +3889,9 @@
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
     </row>
-    <row r="181" spans="1:13" ht="15" customHeight="1">
-      <c r="A181" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181" s="10">
-        <v>72</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E181" s="6">
-        <v>5.5</v>
-      </c>
+    <row r="181" spans="3:13" ht="15" customHeight="1">
+      <c r="C181"/>
+      <c r="E181"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
@@ -5645,22 +3901,9 @@
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
     </row>
-    <row r="182" spans="1:13" ht="15" customHeight="1">
-      <c r="A182" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C182" s="10">
-        <v>72</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E182" s="6">
-        <v>5.13</v>
-      </c>
+    <row r="182" spans="3:13" ht="15" customHeight="1">
+      <c r="C182"/>
+      <c r="E182"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
@@ -5670,22 +3913,9 @@
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
     </row>
-    <row r="183" spans="1:13">
-      <c r="A183" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C183" s="10">
-        <v>72</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E183" s="6">
-        <v>5.13</v>
-      </c>
+    <row r="183" spans="3:13">
+      <c r="C183"/>
+      <c r="E183"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
@@ -5695,22 +3925,9 @@
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
     </row>
-    <row r="184" spans="1:13">
-      <c r="A184" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C184" s="10">
-        <v>72</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E184" s="6">
-        <v>5.13</v>
-      </c>
+    <row r="184" spans="3:13">
+      <c r="C184"/>
+      <c r="E184"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -5720,22 +3937,9 @@
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
     </row>
-    <row r="185" spans="1:13">
-      <c r="A185" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B185" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C185" s="10">
-        <v>72</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E185" s="6">
-        <v>5.13</v>
-      </c>
+    <row r="185" spans="3:13">
+      <c r="C185"/>
+      <c r="E185"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
@@ -5745,22 +3949,9 @@
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
     </row>
-    <row r="186" spans="1:13">
-      <c r="A186" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C186" s="10">
-        <v>72</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E186" s="6">
-        <v>5.13</v>
-      </c>
+    <row r="186" spans="3:13">
+      <c r="C186"/>
+      <c r="E186"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
@@ -5770,22 +3961,9 @@
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
     </row>
-    <row r="187" spans="1:13">
-      <c r="A187" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B187" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C187" s="10">
-        <v>72</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E187" s="6">
-        <v>5.13</v>
-      </c>
+    <row r="187" spans="3:13">
+      <c r="C187"/>
+      <c r="E187"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
@@ -5795,22 +3973,9 @@
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
     </row>
-    <row r="188" spans="1:13">
-      <c r="A188" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C188" s="10">
-        <v>72</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E188" s="6">
-        <v>5.13</v>
-      </c>
+    <row r="188" spans="3:13">
+      <c r="C188"/>
+      <c r="E188"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
@@ -5820,22 +3985,9 @@
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
     </row>
-    <row r="189" spans="1:13">
-      <c r="A189" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C189" s="10">
-        <v>72</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E189" s="6">
-        <v>5.26</v>
-      </c>
+    <row r="189" spans="3:13">
+      <c r="C189"/>
+      <c r="E189"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
@@ -5845,22 +3997,9 @@
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
     </row>
-    <row r="190" spans="1:13">
-      <c r="A190" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C190" s="10">
-        <v>72</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E190" s="6">
-        <v>5.26</v>
-      </c>
+    <row r="190" spans="3:13">
+      <c r="C190"/>
+      <c r="E190"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
@@ -5870,22 +4009,9 @@
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
     </row>
-    <row r="191" spans="1:13">
-      <c r="A191" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C191" s="10">
-        <v>72</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E191" s="6">
-        <v>5.26</v>
-      </c>
+    <row r="191" spans="3:13">
+      <c r="C191"/>
+      <c r="E191"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -5895,22 +4021,9 @@
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
     </row>
-    <row r="192" spans="1:13">
-      <c r="A192" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C192" s="10">
-        <v>72</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E192" s="6">
-        <v>5.26</v>
-      </c>
+    <row r="192" spans="3:13">
+      <c r="C192"/>
+      <c r="E192"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -5920,22 +4033,9 @@
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
     </row>
-    <row r="193" spans="1:13">
-      <c r="A193" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C193" s="10">
-        <v>72</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E193" s="6">
-        <v>5.26</v>
-      </c>
+    <row r="193" spans="3:13">
+      <c r="C193"/>
+      <c r="E193"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
@@ -5945,22 +4045,9 @@
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
     </row>
-    <row r="194" spans="1:13">
-      <c r="A194" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C194" s="10">
-        <v>72</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E194" s="6">
-        <v>5.26</v>
-      </c>
+    <row r="194" spans="3:13">
+      <c r="C194"/>
+      <c r="E194"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
@@ -5970,22 +4057,9 @@
       <c r="L194" s="3"/>
       <c r="M194" s="3"/>
     </row>
-    <row r="195" spans="1:13">
-      <c r="A195" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C195" s="10">
-        <v>72</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E195" s="6">
-        <v>5.26</v>
-      </c>
+    <row r="195" spans="3:13">
+      <c r="C195"/>
+      <c r="E195"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
@@ -5995,22 +4069,9 @@
       <c r="L195" s="3"/>
       <c r="M195" s="3"/>
     </row>
-    <row r="196" spans="1:13">
-      <c r="A196" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C196" s="10">
-        <v>72</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E196" s="6">
-        <v>7.12</v>
-      </c>
+    <row r="196" spans="3:13">
+      <c r="C196"/>
+      <c r="E196"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
@@ -6020,22 +4081,9 @@
       <c r="L196" s="3"/>
       <c r="M196" s="3"/>
     </row>
-    <row r="197" spans="1:13">
-      <c r="A197" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C197" s="10">
-        <v>72</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E197" s="6">
-        <v>7.12</v>
-      </c>
+    <row r="197" spans="3:13">
+      <c r="C197"/>
+      <c r="E197"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
@@ -6045,22 +4093,9 @@
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
     </row>
-    <row r="198" spans="1:13">
-      <c r="A198" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C198" s="10">
-        <v>72</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E198" s="6">
-        <v>7.12</v>
-      </c>
+    <row r="198" spans="3:13">
+      <c r="C198"/>
+      <c r="E198"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
@@ -6070,22 +4105,9 @@
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
     </row>
-    <row r="199" spans="1:13">
-      <c r="A199" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C199" s="10">
-        <v>72</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E199" s="6">
-        <v>7.12</v>
-      </c>
+    <row r="199" spans="3:13">
+      <c r="C199"/>
+      <c r="E199"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
@@ -6095,22 +4117,9 @@
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
     </row>
-    <row r="200" spans="1:13">
-      <c r="A200" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C200" s="10">
-        <v>72</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E200" s="6">
-        <v>7.12</v>
-      </c>
+    <row r="200" spans="3:13">
+      <c r="C200"/>
+      <c r="E200"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
@@ -6120,22 +4129,9 @@
       <c r="L200" s="3"/>
       <c r="M200" s="3"/>
     </row>
-    <row r="201" spans="1:13">
-      <c r="A201" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B201" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C201" s="10">
-        <v>72</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E201" s="6">
-        <v>7.12</v>
-      </c>
+    <row r="201" spans="3:13">
+      <c r="C201"/>
+      <c r="E201"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
@@ -6145,22 +4141,9 @@
       <c r="L201" s="3"/>
       <c r="M201" s="3"/>
     </row>
-    <row r="202" spans="1:13">
-      <c r="A202" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B202" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C202" s="10">
-        <v>72</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E202" s="6">
-        <v>5.89</v>
-      </c>
+    <row r="202" spans="3:13">
+      <c r="C202"/>
+      <c r="E202"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
@@ -6170,22 +4153,9 @@
       <c r="L202" s="3"/>
       <c r="M202" s="3"/>
     </row>
-    <row r="203" spans="1:13">
-      <c r="A203" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C203" s="10">
-        <v>72</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E203" s="6">
-        <v>5.89</v>
-      </c>
+    <row r="203" spans="3:13">
+      <c r="C203"/>
+      <c r="E203"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
@@ -6195,22 +4165,9 @@
       <c r="L203" s="3"/>
       <c r="M203" s="3"/>
     </row>
-    <row r="204" spans="1:13">
-      <c r="A204" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B204" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C204" s="10">
-        <v>72</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E204" s="6">
-        <v>5.89</v>
-      </c>
+    <row r="204" spans="3:13">
+      <c r="C204"/>
+      <c r="E204"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
@@ -6220,22 +4177,9 @@
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
     </row>
-    <row r="205" spans="1:13">
-      <c r="A205" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B205" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C205" s="10">
-        <v>72</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E205" s="6">
-        <v>5.89</v>
-      </c>
+    <row r="205" spans="3:13">
+      <c r="C205"/>
+      <c r="E205"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
@@ -6245,22 +4189,9 @@
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
     </row>
-    <row r="206" spans="1:13">
-      <c r="A206" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B206" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C206" s="10">
-        <v>72</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E206" s="6">
-        <v>5.89</v>
-      </c>
+    <row r="206" spans="3:13">
+      <c r="C206"/>
+      <c r="E206"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
@@ -6270,22 +4201,9 @@
       <c r="L206" s="3"/>
       <c r="M206" s="3"/>
     </row>
-    <row r="207" spans="1:13">
-      <c r="A207" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B207" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C207" s="10">
-        <v>72</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E207" s="6">
-        <v>5.89</v>
-      </c>
+    <row r="207" spans="3:13">
+      <c r="C207"/>
+      <c r="E207"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
@@ -6295,22 +4213,9 @@
       <c r="L207" s="3"/>
       <c r="M207" s="3"/>
     </row>
-    <row r="208" spans="1:13">
-      <c r="A208" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B208" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C208" s="10">
-        <v>72</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E208" s="6">
-        <v>5.89</v>
-      </c>
+    <row r="208" spans="3:13">
+      <c r="C208"/>
+      <c r="E208"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -6320,22 +4225,9 @@
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
     </row>
-    <row r="209" spans="1:13">
-      <c r="A209" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C209" s="10">
-        <v>72</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E209" s="6">
-        <v>4.99</v>
-      </c>
+    <row r="209" spans="3:13">
+      <c r="C209"/>
+      <c r="E209"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
@@ -6345,22 +4237,9 @@
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
     </row>
-    <row r="210" spans="1:13">
-      <c r="A210" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C210" s="10">
-        <v>72</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E210" s="6">
-        <v>4.99</v>
-      </c>
+    <row r="210" spans="3:13">
+      <c r="C210"/>
+      <c r="E210"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
@@ -6370,22 +4249,9 @@
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
     </row>
-    <row r="211" spans="1:13">
-      <c r="A211" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C211" s="10">
-        <v>72</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E211" s="6">
-        <v>4.99</v>
-      </c>
+    <row r="211" spans="3:13">
+      <c r="C211"/>
+      <c r="E211"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
@@ -6395,22 +4261,9 @@
       <c r="L211" s="3"/>
       <c r="M211" s="3"/>
     </row>
-    <row r="212" spans="1:13">
-      <c r="A212" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C212" s="10">
-        <v>72</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E212" s="6">
-        <v>4.99</v>
-      </c>
+    <row r="212" spans="3:13">
+      <c r="C212"/>
+      <c r="E212"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
@@ -6420,22 +4273,9 @@
       <c r="L212" s="3"/>
       <c r="M212" s="3"/>
     </row>
-    <row r="213" spans="1:13">
-      <c r="A213" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B213" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C213" s="10">
-        <v>72</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E213" s="6">
-        <v>4.99</v>
-      </c>
+    <row r="213" spans="3:13">
+      <c r="C213"/>
+      <c r="E213"/>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
@@ -6445,22 +4285,9 @@
       <c r="L213" s="3"/>
       <c r="M213" s="3"/>
     </row>
-    <row r="214" spans="1:13">
-      <c r="A214" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C214" s="10">
-        <v>72</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E214" s="6">
-        <v>4.99</v>
-      </c>
+    <row r="214" spans="3:13">
+      <c r="C214"/>
+      <c r="E214"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
@@ -6470,22 +4297,9 @@
       <c r="L214" s="3"/>
       <c r="M214" s="3"/>
     </row>
-    <row r="215" spans="1:13">
-      <c r="A215" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B215" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C215" s="10">
-        <v>72</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E215" s="6">
-        <v>6.03</v>
-      </c>
+    <row r="215" spans="3:13">
+      <c r="C215"/>
+      <c r="E215"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
@@ -6495,22 +4309,9 @@
       <c r="L215" s="3"/>
       <c r="M215" s="3"/>
     </row>
-    <row r="216" spans="1:13">
-      <c r="A216" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B216" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C216" s="10">
-        <v>72</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E216" s="6">
-        <v>6.03</v>
-      </c>
+    <row r="216" spans="3:13">
+      <c r="C216"/>
+      <c r="E216"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
@@ -6520,22 +4321,9 @@
       <c r="L216" s="3"/>
       <c r="M216" s="3"/>
     </row>
-    <row r="217" spans="1:13">
-      <c r="A217" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B217" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C217" s="10">
-        <v>72</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E217" s="6">
-        <v>6.03</v>
-      </c>
+    <row r="217" spans="3:13">
+      <c r="C217"/>
+      <c r="E217"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
@@ -6545,22 +4333,9 @@
       <c r="L217" s="3"/>
       <c r="M217" s="3"/>
     </row>
-    <row r="218" spans="1:13">
-      <c r="A218" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B218" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C218" s="10">
-        <v>72</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E218" s="6">
-        <v>6.03</v>
-      </c>
+    <row r="218" spans="3:13">
+      <c r="C218"/>
+      <c r="E218"/>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
@@ -6570,22 +4345,9 @@
       <c r="L218" s="3"/>
       <c r="M218" s="3"/>
     </row>
-    <row r="219" spans="1:13">
-      <c r="A219" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B219" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C219" s="10">
-        <v>72</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E219" s="6">
-        <v>6.03</v>
-      </c>
+    <row r="219" spans="3:13">
+      <c r="C219"/>
+      <c r="E219"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
@@ -6595,22 +4357,9 @@
       <c r="L219" s="3"/>
       <c r="M219" s="3"/>
     </row>
-    <row r="220" spans="1:13">
-      <c r="A220" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B220" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C220" s="10">
-        <v>72</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E220" s="6">
-        <v>6.03</v>
-      </c>
+    <row r="220" spans="3:13">
+      <c r="C220"/>
+      <c r="E220"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
@@ -6620,22 +4369,9 @@
       <c r="L220" s="3"/>
       <c r="M220" s="3"/>
     </row>
-    <row r="221" spans="1:13">
-      <c r="A221" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B221" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C221" s="10">
-        <v>72</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E221" s="6">
-        <v>10.28</v>
-      </c>
+    <row r="221" spans="3:13">
+      <c r="C221"/>
+      <c r="E221"/>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
@@ -6645,22 +4381,9 @@
       <c r="L221" s="3"/>
       <c r="M221" s="3"/>
     </row>
-    <row r="222" spans="1:13">
-      <c r="A222" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B222" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C222" s="10">
-        <v>72</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E222" s="6">
-        <v>10.28</v>
-      </c>
+    <row r="222" spans="3:13">
+      <c r="C222"/>
+      <c r="E222"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
@@ -6670,22 +4393,9 @@
       <c r="L222" s="3"/>
       <c r="M222" s="3"/>
     </row>
-    <row r="223" spans="1:13">
-      <c r="A223" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B223" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C223" s="10">
-        <v>72</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E223" s="6">
-        <v>10.28</v>
-      </c>
+    <row r="223" spans="3:13">
+      <c r="C223"/>
+      <c r="E223"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
@@ -6695,22 +4405,9 @@
       <c r="L223" s="3"/>
       <c r="M223" s="3"/>
     </row>
-    <row r="224" spans="1:13">
-      <c r="A224" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B224" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C224" s="10">
-        <v>72</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E224" s="6">
-        <v>10.28</v>
-      </c>
+    <row r="224" spans="3:13">
+      <c r="C224"/>
+      <c r="E224"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
@@ -6720,22 +4417,9 @@
       <c r="L224" s="3"/>
       <c r="M224" s="3"/>
     </row>
-    <row r="225" spans="1:13">
-      <c r="A225" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B225" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C225" s="10">
-        <v>72</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E225" s="6">
-        <v>10.28</v>
-      </c>
+    <row r="225" spans="3:13">
+      <c r="C225"/>
+      <c r="E225"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
@@ -6745,22 +4429,9 @@
       <c r="L225" s="3"/>
       <c r="M225" s="3"/>
     </row>
-    <row r="226" spans="1:13">
-      <c r="A226" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B226" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C226" s="10">
-        <v>72</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E226" s="6">
-        <v>8.93</v>
-      </c>
+    <row r="226" spans="3:13">
+      <c r="C226"/>
+      <c r="E226"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
@@ -6770,22 +4441,9 @@
       <c r="L226" s="3"/>
       <c r="M226" s="3"/>
     </row>
-    <row r="227" spans="1:13">
-      <c r="A227" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B227" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C227" s="10">
-        <v>72</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E227" s="6">
-        <v>8.93</v>
-      </c>
+    <row r="227" spans="3:13">
+      <c r="C227"/>
+      <c r="E227"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
@@ -6795,22 +4453,9 @@
       <c r="L227" s="3"/>
       <c r="M227" s="3"/>
     </row>
-    <row r="228" spans="1:13">
-      <c r="A228" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B228" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C228" s="10">
-        <v>72</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E228" s="6">
-        <v>8.93</v>
-      </c>
+    <row r="228" spans="3:13">
+      <c r="C228"/>
+      <c r="E228"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
@@ -6820,22 +4465,9 @@
       <c r="L228" s="3"/>
       <c r="M228" s="3"/>
     </row>
-    <row r="229" spans="1:13">
-      <c r="A229" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B229" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C229" s="10">
-        <v>72</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E229" s="6">
-        <v>8.93</v>
-      </c>
+    <row r="229" spans="3:13">
+      <c r="C229"/>
+      <c r="E229"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
@@ -6845,22 +4477,9 @@
       <c r="L229" s="3"/>
       <c r="M229" s="3"/>
     </row>
-    <row r="230" spans="1:13">
-      <c r="A230" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B230" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C230" s="10">
-        <v>72</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E230" s="6">
-        <v>8.93</v>
-      </c>
+    <row r="230" spans="3:13">
+      <c r="C230"/>
+      <c r="E230"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
@@ -6870,22 +4489,9 @@
       <c r="L230" s="3"/>
       <c r="M230" s="3"/>
     </row>
-    <row r="231" spans="1:13">
-      <c r="A231" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B231" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C231" s="10">
-        <v>72</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E231" s="6">
-        <v>13.81</v>
-      </c>
+    <row r="231" spans="3:13">
+      <c r="C231"/>
+      <c r="E231"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
@@ -6895,22 +4501,9 @@
       <c r="L231" s="3"/>
       <c r="M231" s="3"/>
     </row>
-    <row r="232" spans="1:13">
-      <c r="A232" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B232" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C232" s="10">
-        <v>72</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E232" s="6">
-        <v>13.81</v>
-      </c>
+    <row r="232" spans="3:13">
+      <c r="C232"/>
+      <c r="E232"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
@@ -6920,22 +4513,9 @@
       <c r="L232" s="3"/>
       <c r="M232" s="3"/>
     </row>
-    <row r="233" spans="1:13">
-      <c r="A233" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B233" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C233" s="10">
-        <v>72</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E233" s="6">
-        <v>13.81</v>
-      </c>
+    <row r="233" spans="3:13">
+      <c r="C233"/>
+      <c r="E233"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
@@ -6945,22 +4525,9 @@
       <c r="L233" s="3"/>
       <c r="M233" s="3"/>
     </row>
-    <row r="234" spans="1:13">
-      <c r="A234" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B234" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C234" s="10">
-        <v>72</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E234" s="6">
-        <v>13.81</v>
-      </c>
+    <row r="234" spans="3:13">
+      <c r="C234"/>
+      <c r="E234"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
@@ -6970,22 +4537,9 @@
       <c r="L234" s="3"/>
       <c r="M234" s="3"/>
     </row>
-    <row r="235" spans="1:13">
-      <c r="A235" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B235" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C235" s="10">
-        <v>72</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E235" s="6">
-        <v>13.81</v>
-      </c>
+    <row r="235" spans="3:13">
+      <c r="C235"/>
+      <c r="E235"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
@@ -6995,22 +4549,9 @@
       <c r="L235" s="3"/>
       <c r="M235" s="3"/>
     </row>
-    <row r="236" spans="1:13">
-      <c r="A236" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B236" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C236" s="10">
-        <v>72</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E236" s="6">
-        <v>6.61</v>
-      </c>
+    <row r="236" spans="3:13">
+      <c r="C236"/>
+      <c r="E236"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
@@ -7020,22 +4561,9 @@
       <c r="L236" s="3"/>
       <c r="M236" s="3"/>
     </row>
-    <row r="237" spans="1:13">
-      <c r="A237" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B237" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C237" s="10">
-        <v>72</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E237" s="6">
-        <v>6.61</v>
-      </c>
+    <row r="237" spans="3:13">
+      <c r="C237"/>
+      <c r="E237"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
@@ -7045,22 +4573,9 @@
       <c r="L237" s="3"/>
       <c r="M237" s="3"/>
     </row>
-    <row r="238" spans="1:13">
-      <c r="A238" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B238" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C238" s="10">
-        <v>72</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E238" s="6">
-        <v>6.61</v>
-      </c>
+    <row r="238" spans="3:13">
+      <c r="C238"/>
+      <c r="E238"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
@@ -7070,22 +4585,9 @@
       <c r="L238" s="3"/>
       <c r="M238" s="3"/>
     </row>
-    <row r="239" spans="1:13">
-      <c r="A239" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B239" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C239" s="10">
-        <v>72</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E239" s="6">
-        <v>6.61</v>
-      </c>
+    <row r="239" spans="3:13">
+      <c r="C239"/>
+      <c r="E239"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
@@ -7095,22 +4597,9 @@
       <c r="L239" s="3"/>
       <c r="M239" s="3"/>
     </row>
-    <row r="240" spans="1:13">
-      <c r="A240" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B240" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C240" s="10">
-        <v>72</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E240" s="6">
-        <v>6.61</v>
-      </c>
+    <row r="240" spans="3:13">
+      <c r="C240"/>
+      <c r="E240"/>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
@@ -7120,22 +4609,9 @@
       <c r="L240" s="3"/>
       <c r="M240" s="3"/>
     </row>
-    <row r="241" spans="1:13">
-      <c r="A241" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C241" s="10">
-        <v>144</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E241" s="6">
-        <v>2.99</v>
-      </c>
+    <row r="241" spans="3:13">
+      <c r="C241"/>
+      <c r="E241"/>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
@@ -7145,22 +4621,9 @@
       <c r="L241" s="3"/>
       <c r="M241" s="3"/>
     </row>
-    <row r="242" spans="1:13">
-      <c r="A242" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C242" s="10">
-        <v>144</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E242" s="6">
-        <v>2.99</v>
-      </c>
+    <row r="242" spans="3:13">
+      <c r="C242"/>
+      <c r="E242"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
@@ -7170,22 +4633,9 @@
       <c r="L242" s="3"/>
       <c r="M242" s="3"/>
     </row>
-    <row r="243" spans="1:13">
-      <c r="A243" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C243" s="10">
-        <v>144</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E243" s="6">
-        <v>2.99</v>
-      </c>
+    <row r="243" spans="3:13">
+      <c r="C243"/>
+      <c r="E243"/>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
@@ -7195,22 +4645,9 @@
       <c r="L243" s="3"/>
       <c r="M243" s="3"/>
     </row>
-    <row r="244" spans="1:13">
-      <c r="A244" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B244" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C244" s="10">
-        <v>144</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E244" s="6">
-        <v>2.99</v>
-      </c>
+    <row r="244" spans="3:13">
+      <c r="C244"/>
+      <c r="E244"/>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
@@ -7220,22 +4657,9 @@
       <c r="L244" s="3"/>
       <c r="M244" s="3"/>
     </row>
-    <row r="245" spans="1:13">
-      <c r="A245" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B245" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C245" s="10">
-        <v>144</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E245" s="6">
-        <v>2.99</v>
-      </c>
+    <row r="245" spans="3:13">
+      <c r="C245"/>
+      <c r="E245"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
@@ -7245,22 +4669,9 @@
       <c r="L245" s="3"/>
       <c r="M245" s="3"/>
     </row>
-    <row r="246" spans="1:13">
-      <c r="A246" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B246" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C246" s="10">
-        <v>144</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E246" s="6">
-        <v>3.48</v>
-      </c>
+    <row r="246" spans="3:13">
+      <c r="C246"/>
+      <c r="E246"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
@@ -7270,22 +4681,9 @@
       <c r="L246" s="3"/>
       <c r="M246" s="3"/>
     </row>
-    <row r="247" spans="1:13">
-      <c r="A247" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B247" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C247" s="10">
-        <v>144</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E247" s="6">
-        <v>3.48</v>
-      </c>
+    <row r="247" spans="3:13">
+      <c r="C247"/>
+      <c r="E247"/>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
@@ -7295,22 +4693,9 @@
       <c r="L247" s="3"/>
       <c r="M247" s="3"/>
     </row>
-    <row r="248" spans="1:13">
-      <c r="A248" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B248" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C248" s="10">
-        <v>144</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E248" s="6">
-        <v>3.48</v>
-      </c>
+    <row r="248" spans="3:13">
+      <c r="C248"/>
+      <c r="E248"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
@@ -7320,22 +4705,9 @@
       <c r="L248" s="3"/>
       <c r="M248" s="3"/>
     </row>
-    <row r="249" spans="1:13">
-      <c r="A249" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B249" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C249" s="10">
-        <v>144</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E249" s="6">
-        <v>3.48</v>
-      </c>
+    <row r="249" spans="3:13">
+      <c r="C249"/>
+      <c r="E249"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
@@ -7345,22 +4717,9 @@
       <c r="L249" s="3"/>
       <c r="M249" s="3"/>
     </row>
-    <row r="250" spans="1:13">
-      <c r="A250" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B250" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C250" s="10">
-        <v>144</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E250" s="6">
-        <v>3.48</v>
-      </c>
+    <row r="250" spans="3:13">
+      <c r="C250"/>
+      <c r="E250"/>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
@@ -7370,22 +4729,9 @@
       <c r="L250" s="3"/>
       <c r="M250" s="3"/>
     </row>
-    <row r="251" spans="1:13">
-      <c r="A251" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B251" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C251" s="10">
-        <v>144</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E251" s="6">
-        <v>3.48</v>
-      </c>
+    <row r="251" spans="3:13">
+      <c r="C251"/>
+      <c r="E251"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
@@ -7395,22 +4741,9 @@
       <c r="L251" s="3"/>
       <c r="M251" s="3"/>
     </row>
-    <row r="252" spans="1:13">
-      <c r="A252" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B252" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C252" s="10">
-        <v>144</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E252" s="6">
-        <v>3.48</v>
-      </c>
+    <row r="252" spans="3:13">
+      <c r="C252"/>
+      <c r="E252"/>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
@@ -7420,22 +4753,9 @@
       <c r="L252" s="3"/>
       <c r="M252" s="3"/>
     </row>
-    <row r="253" spans="1:13">
-      <c r="A253" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B253" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C253" s="10">
-        <v>144</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E253" s="6">
-        <v>4.24</v>
-      </c>
+    <row r="253" spans="3:13">
+      <c r="C253"/>
+      <c r="E253"/>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
@@ -7445,22 +4765,9 @@
       <c r="L253" s="3"/>
       <c r="M253" s="3"/>
     </row>
-    <row r="254" spans="1:13">
-      <c r="A254" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B254" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C254" s="10">
-        <v>144</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E254" s="6">
-        <v>4.24</v>
-      </c>
+    <row r="254" spans="3:13">
+      <c r="C254"/>
+      <c r="E254"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
@@ -7470,22 +4777,9 @@
       <c r="L254" s="3"/>
       <c r="M254" s="3"/>
     </row>
-    <row r="255" spans="1:13">
-      <c r="A255" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B255" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C255" s="10">
-        <v>144</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E255" s="6">
-        <v>4.24</v>
-      </c>
+    <row r="255" spans="3:13">
+      <c r="C255"/>
+      <c r="E255"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
@@ -7495,22 +4789,9 @@
       <c r="L255" s="3"/>
       <c r="M255" s="3"/>
     </row>
-    <row r="256" spans="1:13">
-      <c r="A256" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B256" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C256" s="10">
-        <v>144</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E256" s="6">
-        <v>4.24</v>
-      </c>
+    <row r="256" spans="3:13">
+      <c r="C256"/>
+      <c r="E256"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
@@ -7521,21 +4802,8 @@
       <c r="M256" s="3"/>
     </row>
     <row r="257" spans="1:13">
-      <c r="A257" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B257" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C257" s="10">
-        <v>144</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E257" s="6">
-        <v>4.24</v>
-      </c>
+      <c r="C257"/>
+      <c r="E257"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
@@ -7546,21 +4814,8 @@
       <c r="M257" s="3"/>
     </row>
     <row r="258" spans="1:13">
-      <c r="A258" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B258" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C258" s="10">
-        <v>144</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E258" s="6">
-        <v>4.24</v>
-      </c>
+      <c r="C258"/>
+      <c r="E258"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
@@ -7571,21 +4826,8 @@
       <c r="M258" s="3"/>
     </row>
     <row r="259" spans="1:13">
-      <c r="A259" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B259" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C259" s="10">
-        <v>144</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E259" s="6">
-        <v>4.24</v>
-      </c>
+      <c r="C259"/>
+      <c r="E259"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
@@ -7596,21 +4838,8 @@
       <c r="M259" s="3"/>
     </row>
     <row r="260" spans="1:13">
-      <c r="A260" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B260" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C260" s="10">
-        <v>144</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E260" s="6">
-        <v>3.45</v>
-      </c>
+      <c r="C260"/>
+      <c r="E260"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
@@ -7621,21 +4850,8 @@
       <c r="M260" s="3"/>
     </row>
     <row r="261" spans="1:13">
-      <c r="A261" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B261" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C261" s="10">
-        <v>144</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E261" s="6">
-        <v>3.45</v>
-      </c>
+      <c r="C261"/>
+      <c r="E261"/>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
@@ -7646,21 +4862,8 @@
       <c r="M261" s="3"/>
     </row>
     <row r="262" spans="1:13">
-      <c r="A262" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B262" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C262" s="10">
-        <v>144</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E262" s="6">
-        <v>3.45</v>
-      </c>
+      <c r="C262"/>
+      <c r="E262"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
@@ -7671,21 +4874,8 @@
       <c r="M262" s="3"/>
     </row>
     <row r="263" spans="1:13">
-      <c r="A263" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B263" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C263" s="10">
-        <v>144</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E263" s="6">
-        <v>3.45</v>
-      </c>
+      <c r="C263"/>
+      <c r="E263"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
@@ -7696,21 +4886,8 @@
       <c r="M263" s="3"/>
     </row>
     <row r="264" spans="1:13">
-      <c r="A264" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B264" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C264" s="10">
-        <v>144</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E264" s="6">
-        <v>3.45</v>
-      </c>
+      <c r="C264"/>
+      <c r="E264"/>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
@@ -7721,21 +4898,8 @@
       <c r="M264" s="3"/>
     </row>
     <row r="265" spans="1:13">
-      <c r="A265" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B265" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C265" s="10">
-        <v>144</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E265" s="6">
-        <v>3.45</v>
-      </c>
+      <c r="C265"/>
+      <c r="E265"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
@@ -7746,21 +4910,8 @@
       <c r="M265" s="3"/>
     </row>
     <row r="266" spans="1:13">
-      <c r="A266" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B266" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C266" s="10">
-        <v>144</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E266" s="6">
-        <v>3.45</v>
-      </c>
+      <c r="C266"/>
+      <c r="E266"/>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
@@ -7801,9 +4952,7 @@
       <c r="M268" s="3"/>
     </row>
     <row r="269" spans="1:13">
-      <c r="A269" s="18" t="s">
-        <v>66</v>
-      </c>
+      <c r="A269" s="18"/>
       <c r="B269" s="18"/>
       <c r="C269" s="12"/>
       <c r="D269" s="3"/>
@@ -34348,502 +31497,502 @@
   <sheetData>
     <row r="6" spans="1:6">
       <c r="A6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="F6" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="F7" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="C8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="F8" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>83</v>
-      </c>
       <c r="F9" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="F10" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>91</v>
-      </c>
       <c r="F11" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="F12" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="E13" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="F13" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="F16" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="F17" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>111</v>
-      </c>
       <c r="F18" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>115</v>
-      </c>
       <c r="F19" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>119</v>
-      </c>
       <c r="F20" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="F21" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="F22" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="F26" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="13" t="s">
+      <c r="E27" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="F27" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="C28" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>139</v>
-      </c>
       <c r="F28" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="C32" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="E32" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>143</v>
-      </c>
       <c r="F32" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="C33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>147</v>
-      </c>
       <c r="F33" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="C34" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="E34" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>151</v>
-      </c>
       <c r="F34" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="C35" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="13" t="s">
+      <c r="E35" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>155</v>
-      </c>
       <c r="F35" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="C36" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="13" t="s">
+      <c r="E36" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>159</v>
-      </c>
       <c r="F36" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="C37" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>163</v>
-      </c>
       <c r="F37" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="C38" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>167</v>
-      </c>
       <c r="F38" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -34856,122 +32005,122 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="C40" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>170</v>
-      </c>
       <c r="F40" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="C41" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="13" t="s">
+      <c r="E41" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>174</v>
-      </c>
       <c r="F41" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="C42" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="13" t="s">
+      <c r="E42" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>178</v>
-      </c>
       <c r="F42" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="C43" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="13" t="s">
+      <c r="E43" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>182</v>
-      </c>
       <c r="F43" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="C44" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="13" t="s">
+      <c r="E44" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>186</v>
-      </c>
       <c r="F44" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="C45" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>190</v>
-      </c>
       <c r="F45" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -34997,6 +32146,22 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Immagine xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xsi:nil="true"/>
+    <TaxCatchAll xmlns="6b171bcf-1fa5-49ef-b568-699dcad2c382" xsi:nil="true"/>
+    <Link xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Link>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055F72550B56A134E8F94E943ED2125D5" ma:contentTypeVersion="21" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="eb3c39589fc3b4a31caf5bff2e2e093b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xmlns:ns3="4a7ac78a-c3c2-4bcb-a06e-8bed5ec9f5f5" xmlns:ns4="6b171bcf-1fa5-49ef-b568-699dcad2c382" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fe1debf8ff01d4159b210342ee81ade" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
@@ -35281,22 +32446,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Immagine xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xsi:nil="true"/>
-    <TaxCatchAll xmlns="6b171bcf-1fa5-49ef-b568-699dcad2c382" xsi:nil="true"/>
-    <Link xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Link>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA3736D-F17D-46BC-92E5-B6DA91EC9F97}">
   <ds:schemaRefs>
@@ -35306,6 +32455,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD45C69-E685-45F1-88EC-BBF993A28BFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
+    <ds:schemaRef ds:uri="6b171bcf-1fa5-49ef-b568-699dcad2c382"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{003EE018-AD3C-4BFD-8258-13865702103A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35323,15 +32483,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD45C69-E685-45F1-88EC-BBF993A28BFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
-    <ds:schemaRef ds:uri="6b171bcf-1fa5-49ef-b568-699dcad2c382"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Listino_ATG.xlsx
+++ b/Listino_ATG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baseprotection-my.sharepoint.com/personal/m_cavallo_baseprotection_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="574" documentId="13_ncr:1_{4A2CD3E5-0607-4497-A017-69616D58F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{982FFDDC-74B9-4AF8-BAA0-DE9F5531477D}"/>
+  <xr:revisionPtr revIDLastSave="575" documentId="13_ncr:1_{4A2CD3E5-0607-4497-A017-69616D58F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0152BBEE-31CE-429B-85A0-844C1D81F72A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{40B7C533-07EF-403B-9DE6-8C229D8B4A4B}"/>
   </bookViews>
@@ -631,7 +631,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,###.00\€"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +674,14 @@
       <color theme="3"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -741,12 +749,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -792,8 +801,10 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{652CAE4B-F563-461E-B5F9-BA9BD178B5DD}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1" xr:uid="{D7F7E572-B760-4C48-B3B9-83B576A65216}"/>
@@ -1115,7 +1126,7 @@
   <dimension ref="A1:M2036"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1470,7 +1481,7 @@
       <c r="E14" s="6">
         <v>4.13</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="19" t="s">
         <v>193</v>
       </c>
       <c r="G14" s="3"/>
@@ -31476,8 +31487,11 @@
     <mergeCell ref="A269:B269"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F14" r:id="rId1" xr:uid="{101E6F21-935C-489B-AC51-1F0E47AB6651}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -32137,31 +32151,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Immagine xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xsi:nil="true"/>
-    <TaxCatchAll xmlns="6b171bcf-1fa5-49ef-b568-699dcad2c382" xsi:nil="true"/>
-    <Link xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Link>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055F72550B56A134E8F94E943ED2125D5" ma:contentTypeVersion="21" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="eb3c39589fc3b4a31caf5bff2e2e093b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xmlns:ns3="4a7ac78a-c3c2-4bcb-a06e-8bed5ec9f5f5" xmlns:ns4="6b171bcf-1fa5-49ef-b568-699dcad2c382" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fe1debf8ff01d4159b210342ee81ade" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
@@ -32446,26 +32435,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA3736D-F17D-46BC-92E5-B6DA91EC9F97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Immagine xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xsi:nil="true"/>
+    <TaxCatchAll xmlns="6b171bcf-1fa5-49ef-b568-699dcad2c382" xsi:nil="true"/>
+    <Link xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Link>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD45C69-E685-45F1-88EC-BBF993A28BFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
-    <ds:schemaRef ds:uri="6b171bcf-1fa5-49ef-b568-699dcad2c382"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{003EE018-AD3C-4BFD-8258-13865702103A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32483,4 +32478,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD45C69-E685-45F1-88EC-BBF993A28BFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
+    <ds:schemaRef ds:uri="6b171bcf-1fa5-49ef-b568-699dcad2c382"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA3736D-F17D-46BC-92E5-B6DA91EC9F97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Listino_ATG.xlsx
+++ b/Listino_ATG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baseprotection-my.sharepoint.com/personal/m_cavallo_baseprotection_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="575" documentId="13_ncr:1_{4A2CD3E5-0607-4497-A017-69616D58F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0152BBEE-31CE-429B-85A0-844C1D81F72A}"/>
+  <xr:revisionPtr revIDLastSave="578" documentId="13_ncr:1_{4A2CD3E5-0607-4497-A017-69616D58F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5449D299-09BD-4C0C-AFB6-AB81ACDA8A34}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{40B7C533-07EF-403B-9DE6-8C229D8B4A4B}"/>
   </bookViews>
@@ -618,10 +618,10 @@
     <t>articolo</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/scl/fi/5zp9d1oab5etgqn57m0xj/34-274HC.png?rlkey=n56juhhb43cqu9tshhw9vqi6k&amp;st=tjcxrne5&amp;dl=0</t>
+    <t>IMMAGINE</t>
   </si>
   <si>
-    <t>Immagine</t>
+    <t>https://www.dropbox.com/scl/fi/5zp9d1oab5etgqn57m0xj/34-274HC.png?rlkey=n56juhhb43cqu9tshhw9vqi6k&amp;st=tjcxrne5&amp;RAW=1</t>
   </si>
 </sst>
 </file>
@@ -798,10 +798,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8"/>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:M2036"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1155,7 +1155,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1481,8 +1481,8 @@
       <c r="E14" s="6">
         <v>4.13</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>193</v>
+      <c r="F14" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -4963,8 +4963,8 @@
       <c r="M268" s="3"/>
     </row>
     <row r="269" spans="1:13">
-      <c r="A269" s="18"/>
-      <c r="B269" s="18"/>
+      <c r="A269" s="19"/>
+      <c r="B269" s="19"/>
       <c r="C269" s="12"/>
       <c r="D269" s="3"/>
       <c r="E269" s="7"/>
@@ -32151,6 +32151,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Immagine xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xsi:nil="true"/>
+    <TaxCatchAll xmlns="6b171bcf-1fa5-49ef-b568-699dcad2c382" xsi:nil="true"/>
+    <Link xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Link>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055F72550B56A134E8F94E943ED2125D5" ma:contentTypeVersion="21" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="eb3c39589fc3b4a31caf5bff2e2e093b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xmlns:ns3="4a7ac78a-c3c2-4bcb-a06e-8bed5ec9f5f5" xmlns:ns4="6b171bcf-1fa5-49ef-b568-699dcad2c382" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fe1debf8ff01d4159b210342ee81ade" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
@@ -32435,32 +32460,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Immagine xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xsi:nil="true"/>
-    <TaxCatchAll xmlns="6b171bcf-1fa5-49ef-b568-699dcad2c382" xsi:nil="true"/>
-    <Link xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Link>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA3736D-F17D-46BC-92E5-B6DA91EC9F97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD45C69-E685-45F1-88EC-BBF993A28BFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
+    <ds:schemaRef ds:uri="6b171bcf-1fa5-49ef-b568-699dcad2c382"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{003EE018-AD3C-4BFD-8258-13865702103A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32478,23 +32497,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD45C69-E685-45F1-88EC-BBF993A28BFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
-    <ds:schemaRef ds:uri="6b171bcf-1fa5-49ef-b568-699dcad2c382"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA3736D-F17D-46BC-92E5-B6DA91EC9F97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Listino_ATG.xlsx
+++ b/Listino_ATG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baseprotection-my.sharepoint.com/personal/m_cavallo_baseprotection_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="578" documentId="13_ncr:1_{4A2CD3E5-0607-4497-A017-69616D58F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5449D299-09BD-4C0C-AFB6-AB81ACDA8A34}"/>
+  <xr:revisionPtr revIDLastSave="580" documentId="13_ncr:1_{4A2CD3E5-0607-4497-A017-69616D58F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57EF182A-B5A5-450A-BBBB-67560C9D8376}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{40B7C533-07EF-403B-9DE6-8C229D8B4A4B}"/>
   </bookViews>
@@ -621,7 +621,7 @@
     <t>IMMAGINE</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/scl/fi/5zp9d1oab5etgqn57m0xj/34-274HC.png?rlkey=n56juhhb43cqu9tshhw9vqi6k&amp;st=tjcxrne5&amp;RAW=1</t>
+    <t>https://i.postimg.cc/285QDghM/34-274HC.png</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:M2036"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31487,11 +31487,8 @@
     <mergeCell ref="A269:B269"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" xr:uid="{101E6F21-935C-489B-AC51-1F0E47AB6651}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32151,31 +32148,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Immagine xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xsi:nil="true"/>
-    <TaxCatchAll xmlns="6b171bcf-1fa5-49ef-b568-699dcad2c382" xsi:nil="true"/>
-    <Link xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Link>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055F72550B56A134E8F94E943ED2125D5" ma:contentTypeVersion="21" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="eb3c39589fc3b4a31caf5bff2e2e093b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xmlns:ns3="4a7ac78a-c3c2-4bcb-a06e-8bed5ec9f5f5" xmlns:ns4="6b171bcf-1fa5-49ef-b568-699dcad2c382" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fe1debf8ff01d4159b210342ee81ade" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
@@ -32460,26 +32432,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA3736D-F17D-46BC-92E5-B6DA91EC9F97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Immagine xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xsi:nil="true"/>
+    <TaxCatchAll xmlns="6b171bcf-1fa5-49ef-b568-699dcad2c382" xsi:nil="true"/>
+    <Link xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Link>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD45C69-E685-45F1-88EC-BBF993A28BFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
-    <ds:schemaRef ds:uri="6b171bcf-1fa5-49ef-b568-699dcad2c382"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{003EE018-AD3C-4BFD-8258-13865702103A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32497,4 +32475,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD45C69-E685-45F1-88EC-BBF993A28BFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
+    <ds:schemaRef ds:uri="6b171bcf-1fa5-49ef-b568-699dcad2c382"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA3736D-F17D-46BC-92E5-B6DA91EC9F97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Listino_ATG.xlsx
+++ b/Listino_ATG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baseprotection-my.sharepoint.com/personal/m_cavallo_baseprotection_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="580" documentId="13_ncr:1_{4A2CD3E5-0607-4497-A017-69616D58F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57EF182A-B5A5-450A-BBBB-67560C9D8376}"/>
+  <xr:revisionPtr revIDLastSave="582" documentId="13_ncr:1_{4A2CD3E5-0607-4497-A017-69616D58F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5CC65B2-06D8-4E76-9B50-F0E8F07BA130}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{40B7C533-07EF-403B-9DE6-8C229D8B4A4B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="196">
   <si>
     <t>Tg: 7-11</t>
   </si>
@@ -623,6 +623,9 @@
   <si>
     <t>https://i.postimg.cc/285QDghM/34-274HC.png</t>
   </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/4/41/Safety_glove.jpg</t>
+  </si>
 </sst>
 </file>
 
@@ -631,7 +634,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,###.00\€"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,14 +677,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -749,13 +744,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -798,13 +792,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8"/>
+  <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="2" xr:uid="{652CAE4B-F563-461E-B5F9-BA9BD178B5DD}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1" xr:uid="{D7F7E572-B760-4C48-B3B9-83B576A65216}"/>
@@ -1126,7 +1118,7 @@
   <dimension ref="A1:M2036"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1406,7 +1398,9 @@
       <c r="E11" s="6">
         <v>5.43</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" t="s">
+        <v>195</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1481,7 +1475,7 @@
       <c r="E14" s="6">
         <v>4.13</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" t="s">
         <v>194</v>
       </c>
       <c r="G14" s="3"/>
@@ -4963,8 +4957,8 @@
       <c r="M268" s="3"/>
     </row>
     <row r="269" spans="1:13">
-      <c r="A269" s="19"/>
-      <c r="B269" s="19"/>
+      <c r="A269" s="18"/>
+      <c r="B269" s="18"/>
       <c r="C269" s="12"/>
       <c r="D269" s="3"/>
       <c r="E269" s="7"/>
@@ -32148,6 +32142,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Immagine xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xsi:nil="true"/>
+    <TaxCatchAll xmlns="6b171bcf-1fa5-49ef-b568-699dcad2c382" xsi:nil="true"/>
+    <Link xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Link>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010055F72550B56A134E8F94E943ED2125D5" ma:contentTypeVersion="21" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="eb3c39589fc3b4a31caf5bff2e2e093b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xmlns:ns3="4a7ac78a-c3c2-4bcb-a06e-8bed5ec9f5f5" xmlns:ns4="6b171bcf-1fa5-49ef-b568-699dcad2c382" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fe1debf8ff01d4159b210342ee81ade" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
@@ -32432,32 +32451,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Immagine xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb" xsi:nil="true"/>
-    <TaxCatchAll xmlns="6b171bcf-1fa5-49ef-b568-699dcad2c382" xsi:nil="true"/>
-    <Link xmlns="09688cd9-5420-4bf2-a42d-d4d89821ffbb">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Link>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA3736D-F17D-46BC-92E5-B6DA91EC9F97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD45C69-E685-45F1-88EC-BBF993A28BFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
+    <ds:schemaRef ds:uri="6b171bcf-1fa5-49ef-b568-699dcad2c382"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{003EE018-AD3C-4BFD-8258-13865702103A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32475,23 +32488,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD45C69-E685-45F1-88EC-BBF993A28BFD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="09688cd9-5420-4bf2-a42d-d4d89821ffbb"/>
-    <ds:schemaRef ds:uri="6b171bcf-1fa5-49ef-b568-699dcad2c382"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BA3736D-F17D-46BC-92E5-B6DA91EC9F97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Listino_ATG.xlsx
+++ b/Listino_ATG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baseprotection-my.sharepoint.com/personal/m_cavallo_baseprotection_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="582" documentId="13_ncr:1_{4A2CD3E5-0607-4497-A017-69616D58F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5CC65B2-06D8-4E76-9B50-F0E8F07BA130}"/>
+  <xr:revisionPtr revIDLastSave="605" documentId="13_ncr:1_{4A2CD3E5-0607-4497-A017-69616D58F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5CB16E1-2036-45D7-BFAE-A2DE7122A7CA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{40B7C533-07EF-403B-9DE6-8C229D8B4A4B}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9960" xr2:uid="{40B7C533-07EF-403B-9DE6-8C229D8B4A4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="206">
   <si>
     <t>Tg: 7-11</t>
   </si>
@@ -621,10 +621,40 @@
     <t>IMMAGINE</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/285QDghM/34-274HC.png</t>
+    <t>https://i.postimg.cc/QtQLk0bs/42_874_maxiflex_ultimate_42_874_2025_09_hr_f318fab9_png.webp</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/4/41/Safety_glove.jpg</t>
+    <t>https://i.postimg.cc/0QYgdcf2/34_844_maxiflex_endurance_34_844_2018_06_hr_aea21ed4_png.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/vBFFVpWm/34_274_maxiflex_elite_34_274_2025_hr_3e1d524f_png.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ry9XDZzc/42_8743_maxiflex_cut_42_8743_2023_01_hr_e24d0b6d_png.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/HWtDrvjd/52_3745_maxicut_ultra_52_3745_2022_04_hr_027a8541_png.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3RXMCnBY/19_007_maxidex_19_007_2022_12_hr_fbce6db7_png.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/HWtDrvjp/56_425_maxidry_56_425_2018_10_hr_9c26c439_png.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/9FF3ZPq2/56_426_maxidry_56_426_2019_03_hr_aafe3120_png.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/7YYv01TZ/56_451_maxidry_zero_56_451_2021_08_hr_60854139_png.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/X72R8Zwq/76_830_maxichem_76_830_2023_01_hr_8b313746_png.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ZKfGc9rW/64_225_maxidry_elite_64_225_tech1_hr_45b4b676_png.webp</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/qqZdzgwD/42-848-maxiflex-endurance-42-848-2018-07-hr-6d543ef7-png.webp</t>
   </si>
 </sst>
 </file>
@@ -1117,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4218CFF-9330-49D2-A2A9-D9B5D4CD3A1C}">
   <dimension ref="A1:M2036"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1223,7 +1253,9 @@
       <c r="E4" s="6">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1248,7 +1280,9 @@
       <c r="E5" s="6">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1298,7 +1332,9 @@
       <c r="E7" s="6">
         <v>5.44</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1323,7 +1359,9 @@
       <c r="E8" s="6">
         <v>5.44</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1373,7 +1411,9 @@
       <c r="E10" s="6">
         <v>5.43</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1398,8 +1438,8 @@
       <c r="E11" s="6">
         <v>5.43</v>
       </c>
-      <c r="F11" t="s">
-        <v>195</v>
+      <c r="F11" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1450,7 +1490,9 @@
       <c r="E13" s="6">
         <v>4.13</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1475,8 +1517,8 @@
       <c r="E14" s="6">
         <v>4.13</v>
       </c>
-      <c r="F14" t="s">
-        <v>194</v>
+      <c r="F14" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1602,7 +1644,9 @@
       <c r="E19" s="6">
         <v>8.5399999999999991</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1677,7 +1721,9 @@
       <c r="E22" s="6">
         <v>10.85</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1927,7 +1973,9 @@
       <c r="E32" s="6">
         <v>5.5</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1977,7 +2025,9 @@
       <c r="E34" s="6">
         <v>5.26</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -2002,7 +2052,9 @@
       <c r="E35" s="6">
         <v>7.12</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -2052,7 +2104,9 @@
       <c r="E37" s="6">
         <v>4.99</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -2077,7 +2131,9 @@
       <c r="E38" s="6">
         <v>6.03</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -2102,7 +2158,9 @@
       <c r="E39" s="6">
         <v>10.28</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -2127,7 +2185,9 @@
       <c r="E40" s="6">
         <v>8.93</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -2152,7 +2212,9 @@
       <c r="E41" s="6">
         <v>13.81</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2289,7 +2351,6 @@
     <row r="47" spans="1:13">
       <c r="C47"/>
       <c r="E47"/>
-      <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
